--- a/TestCase/Testcase.xlsx
+++ b/TestCase/Testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duy\source\repos\DataStructure\ManageCustomer\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DA3D42-4721-48D4-B628-AA4861C679AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B16035-D528-4606-810B-7AB8303CA905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F1522B4-59CE-4D57-9484-96B882DCD646}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
   <si>
     <t>TEST CASE TEMPLATE</t>
   </si>
@@ -280,13 +280,7 @@
     <t>Order found by keyword</t>
   </si>
   <si>
-    <t>Same</t>
-  </si>
-  <si>
     <t>Message “No orders found” displayed</t>
-  </si>
-  <si>
-    <t>Revenue total is correct</t>
   </si>
   <si>
     <t>Rechecked with calculator</t>
@@ -295,25 +289,10 @@
     <t>Valid selection navigates to correct function</t>
   </si>
   <si>
-    <t>Invalid selection shows error</t>
-  </si>
-  <si>
-    <t>Negative amount rejected</t>
-  </si>
-  <si>
     <t>Validation works correctly</t>
   </si>
   <si>
-    <t>Case-insensitive search successful</t>
-  </si>
-  <si>
-    <t>Blank keyword triggers warning</t>
-  </si>
-  <si>
     <t>Should improve UX message</t>
-  </si>
-  <si>
-    <t>“No orders” message shown correctly</t>
   </si>
   <si>
     <t>Windows 11, .NET 8</t>
@@ -352,6 +331,9 @@
   </si>
   <si>
     <t>223 - Phạm Văn B - -2344</t>
+  </si>
+  <si>
+    <t>As expected</t>
   </si>
 </sst>
 </file>
@@ -737,15 +719,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +733,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,49 +765,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3019425" cy="704850"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E29C1F-D03C-4114-9074-3CDF5CF590D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15558135" y="1232535"/>
-          <a:ext cx="3019425" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CA2954-2E5E-43E6-980B-B9191EEB8574}">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
@@ -1199,12 +1138,12 @@
     </row>
     <row r="2" spans="1:28" ht="24.6">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1271,8 +1210,8 @@
       <c r="F4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>86</v>
+      <c r="G4" s="37" t="s">
+        <v>79</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1308,7 +1247,7 @@
       <c r="F5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1343,8 +1282,8 @@
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="43" t="s">
-        <v>87</v>
+      <c r="G6" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -1378,7 +1317,7 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="39">
         <v>45818</v>
       </c>
       <c r="H7" s="10"/>
@@ -1517,7 +1456,7 @@
     </row>
     <row r="11" spans="1:28" ht="72">
       <c r="A11" s="6"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="23" t="s">
@@ -1530,16 +1469,16 @@
         <v>43</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>70</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>18</v>
@@ -1569,7 +1508,7 @@
     </row>
     <row r="12" spans="1:28" ht="18">
       <c r="A12" s="6"/>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -1585,13 +1524,13 @@
         <v>34</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>72</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>18</v>
@@ -1619,7 +1558,7 @@
     </row>
     <row r="13" spans="1:28" ht="28.8">
       <c r="A13" s="6"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="23" t="s">
@@ -1632,16 +1571,16 @@
         <v>33</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J13" s="32" t="s">
         <v>18</v>
@@ -1669,7 +1608,7 @@
     </row>
     <row r="14" spans="1:28" ht="28.8">
       <c r="A14" s="6"/>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -1685,20 +1624,20 @@
         <v>37</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="5"/>
@@ -1719,7 +1658,7 @@
     </row>
     <row r="15" spans="1:28" ht="28.8">
       <c r="A15" s="6"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="41" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -1738,10 +1677,10 @@
         <v>42</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J15" s="32" t="s">
         <v>18</v>
@@ -1769,7 +1708,7 @@
     </row>
     <row r="16" spans="1:28" ht="18">
       <c r="A16" s="6"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="41" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="23" t="s">
@@ -1788,10 +1727,10 @@
         <v>49</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>18</v>
@@ -1819,7 +1758,7 @@
     </row>
     <row r="17" spans="1:28" ht="36">
       <c r="A17" s="6"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -1832,23 +1771,23 @@
         <v>67</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G17" s="23" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J17" s="32" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M17" s="16"/>
       <c r="N17" s="5"/>
@@ -1869,7 +1808,7 @@
     </row>
     <row r="18" spans="1:28" ht="37.200000000000003" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="41" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="23" t="s">
@@ -1879,7 +1818,7 @@
         <v>56</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>66</v>
@@ -1888,10 +1827,10 @@
         <v>57</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J18" s="32" t="s">
         <v>18</v>
@@ -1919,7 +1858,7 @@
     </row>
     <row r="19" spans="1:28" ht="36">
       <c r="A19" s="6"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -1938,10 +1877,10 @@
         <v>61</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J19" s="32" t="s">
         <v>18</v>
@@ -1950,7 +1889,7 @@
         <v>37</v>
       </c>
       <c r="L19" s="33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="5"/>
@@ -1971,7 +1910,7 @@
     </row>
     <row r="20" spans="1:28" ht="54">
       <c r="A20" s="6"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="41" t="s">
         <v>62</v>
       </c>
       <c r="C20" s="23" t="s">
@@ -1987,13 +1926,13 @@
         <v>65</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J20" s="32" t="s">
         <v>18</v>
@@ -31579,6 +31518,5 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>